--- a/591528am_NA2.xlsx
+++ b/591528am_NA2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GG\Academics\Erasmus\teaching\courses\B3T1102 Data Modelling &amp; Analytics\2022-2023\assigments\individual assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreamontalto/Desktop/Github/DMA/DMA_Assingment 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A7D96D-9F5B-4B01-8E0E-F7619A1B64C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC616A4E-B0F3-A54D-9743-AD9209B5DBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{664D4578-77D4-4550-82A1-A74050B119A4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{664D4578-77D4-4550-82A1-A74050B119A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>question</t>
   </si>
   <si>
     <t>answer</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -77,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,7 +156,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -243,7 +262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,13 +414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B479F7-4382-411F-9938-DE0AA33FEF51}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,134 +428,212 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
+        <v>1.0077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
